--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H2">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I2">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J2">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>0.043343761553</v>
+        <v>0.629766743398</v>
       </c>
       <c r="R2">
-        <v>0.260062569318</v>
+        <v>3.778600460388</v>
       </c>
       <c r="S2">
-        <v>0.004439664435286615</v>
+        <v>0.004267140116689611</v>
       </c>
       <c r="T2">
-        <v>0.003017198736148023</v>
+        <v>0.002943272778137054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.687091</v>
+        <v>3.872739</v>
       </c>
       <c r="H3">
-        <v>1.374182</v>
+        <v>7.745478</v>
       </c>
       <c r="I3">
-        <v>0.006109245136875069</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J3">
-        <v>0.004151846828623644</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N3">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O3">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P3">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q3">
-        <v>0.016299859793</v>
+        <v>3.395541391333</v>
       </c>
       <c r="R3">
-        <v>0.09779915875800002</v>
+        <v>20.373248347998</v>
       </c>
       <c r="S3">
-        <v>0.001669580701588453</v>
+        <v>0.02300732936556509</v>
       </c>
       <c r="T3">
-        <v>0.001134648092475621</v>
+        <v>0.01586937488985827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.337382</v>
+        <v>3.872739</v>
       </c>
       <c r="H4">
-        <v>304.012146</v>
+        <v>7.745478</v>
       </c>
       <c r="I4">
-        <v>0.9010377201377272</v>
+        <v>0.03299520440786341</v>
       </c>
       <c r="J4">
-        <v>0.9185187000216628</v>
+        <v>0.02275854185403964</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N4">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O4">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P4">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q4">
-        <v>6.392666068706</v>
+        <v>0.84429582939</v>
       </c>
       <c r="R4">
-        <v>57.53399461835401</v>
+        <v>5.06577497634</v>
       </c>
       <c r="S4">
-        <v>0.6547953194416082</v>
+        <v>0.005720734925608708</v>
       </c>
       <c r="T4">
-        <v>0.6674989649732339</v>
+        <v>0.00394589418604432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>304.012146</v>
       </c>
       <c r="I5">
-        <v>0.9010377201377272</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J5">
-        <v>0.9185187000216628</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N5">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O5">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P5">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q5">
-        <v>2.404026713186</v>
+        <v>16.47901215305733</v>
       </c>
       <c r="R5">
-        <v>21.63624041867401</v>
+        <v>148.311109377516</v>
       </c>
       <c r="S5">
-        <v>0.246242400696119</v>
+        <v>0.1116576170127911</v>
       </c>
       <c r="T5">
-        <v>0.2510197350484287</v>
+        <v>0.1155242676494372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.502495333333333</v>
+        <v>101.337382</v>
       </c>
       <c r="H6">
-        <v>4.507486</v>
+        <v>304.012146</v>
       </c>
       <c r="I6">
-        <v>0.01335938370367848</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J6">
-        <v>0.0136185683222204</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N6">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O6">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P6">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q6">
-        <v>0.09478191311266666</v>
+        <v>88.85062356908735</v>
       </c>
       <c r="R6">
-        <v>0.853037218014</v>
+        <v>799.6556121217861</v>
       </c>
       <c r="S6">
-        <v>0.009708430317940575</v>
+        <v>0.6020293453078268</v>
       </c>
       <c r="T6">
-        <v>0.00989678300429267</v>
+        <v>0.6228773377116721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.502495333333333</v>
+        <v>101.337382</v>
       </c>
       <c r="H7">
-        <v>4.507486</v>
+        <v>304.012146</v>
       </c>
       <c r="I7">
-        <v>0.01335938370367848</v>
+        <v>0.8633805772213771</v>
       </c>
       <c r="J7">
-        <v>0.0136185683222204</v>
+        <v>0.8932790395734661</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N7">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O7">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P7">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q7">
-        <v>0.03564369679266667</v>
+        <v>22.09256264982</v>
       </c>
       <c r="R7">
-        <v>0.3207932711340001</v>
+        <v>198.83306384838</v>
       </c>
       <c r="S7">
-        <v>0.003650953385737906</v>
+        <v>0.1496936149007592</v>
       </c>
       <c r="T7">
-        <v>0.003721785317927731</v>
+        <v>0.1548774342123568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.422325</v>
+      </c>
+      <c r="H8">
+        <v>7.266975</v>
+      </c>
+      <c r="I8">
+        <v>0.02063787632403778</v>
+      </c>
+      <c r="J8">
+        <v>0.02135255625150052</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.734249999999999</v>
-      </c>
-      <c r="H8">
-        <v>11.4685</v>
-      </c>
-      <c r="I8">
-        <v>0.0509858794921282</v>
-      </c>
-      <c r="J8">
-        <v>0.03465003569692389</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N8">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O8">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P8">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q8">
-        <v>0.3617336927499999</v>
+        <v>0.3939071873166667</v>
       </c>
       <c r="R8">
-        <v>2.1704021565</v>
+        <v>3.54516468585</v>
       </c>
       <c r="S8">
-        <v>0.03705207285212916</v>
+        <v>0.00266901543924343</v>
       </c>
       <c r="T8">
-        <v>0.02518061196079821</v>
+        <v>0.002761442185608495</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.734249999999999</v>
+        <v>2.422325</v>
       </c>
       <c r="H9">
-        <v>11.4685</v>
+        <v>7.266975</v>
       </c>
       <c r="I9">
-        <v>0.0509858794921282</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J9">
-        <v>0.03465003569692389</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N9">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O9">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P9">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q9">
-        <v>0.13603361275</v>
+        <v>2.123846920941667</v>
       </c>
       <c r="R9">
-        <v>0.8162016765000001</v>
+        <v>19.114622288475</v>
       </c>
       <c r="S9">
-        <v>0.01393380663999905</v>
+        <v>0.01439064938418067</v>
       </c>
       <c r="T9">
-        <v>0.009469423736125675</v>
+        <v>0.01488899078794463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.182641333333333</v>
+        <v>2.422325</v>
       </c>
       <c r="H10">
-        <v>3.547924</v>
+        <v>7.266975</v>
       </c>
       <c r="I10">
-        <v>0.01051541326306721</v>
+        <v>0.02063787632403778</v>
       </c>
       <c r="J10">
-        <v>0.01071942217813777</v>
+        <v>0.02135255625150052</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N10">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O10">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P10">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q10">
-        <v>0.07460456323066668</v>
+        <v>0.52809107325</v>
       </c>
       <c r="R10">
-        <v>0.671441069076</v>
+        <v>4.75281965925</v>
       </c>
       <c r="S10">
-        <v>0.007641681621939371</v>
+        <v>0.003578211500613679</v>
       </c>
       <c r="T10">
-        <v>0.007789937438235431</v>
+        <v>0.003702123277947393</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.912825</v>
+      </c>
+      <c r="H11">
+        <v>15.82565</v>
+      </c>
+      <c r="I11">
+        <v>0.06741618227271494</v>
+      </c>
+      <c r="J11">
+        <v>0.04650051525449849</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>1.182641333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.547924</v>
-      </c>
-      <c r="I11">
-        <v>0.01051541326306721</v>
-      </c>
-      <c r="J11">
-        <v>0.01071942217813777</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M11">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N11">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O11">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P11">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q11">
-        <v>0.02805580035066668</v>
+        <v>1.286746674983333</v>
       </c>
       <c r="R11">
-        <v>0.252502203156</v>
+        <v>7.7204800499</v>
       </c>
       <c r="S11">
-        <v>0.002873731641127843</v>
+        <v>0.008718669911358464</v>
       </c>
       <c r="T11">
-        <v>0.002929484739902337</v>
+        <v>0.0060137288933394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.023554</v>
+        <v>7.912825</v>
       </c>
       <c r="H12">
-        <v>6.070662</v>
+        <v>15.82565</v>
       </c>
       <c r="I12">
-        <v>0.01799235826652378</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J12">
-        <v>0.01834142695243139</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N12">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O12">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P12">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q12">
-        <v>0.127651856982</v>
+        <v>6.937809341108333</v>
       </c>
       <c r="R12">
-        <v>1.148866712838</v>
+        <v>41.62685604665</v>
       </c>
       <c r="S12">
-        <v>0.01307527056340714</v>
+        <v>0.04700884076801395</v>
       </c>
       <c r="T12">
-        <v>0.01332894311960267</v>
+        <v>0.03242448984112866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.023554</v>
+        <v>7.912825</v>
       </c>
       <c r="H13">
-        <v>6.070662</v>
+        <v>15.82565</v>
       </c>
       <c r="I13">
-        <v>0.01799235826652378</v>
+        <v>0.06741618227271494</v>
       </c>
       <c r="J13">
-        <v>0.01834142695243139</v>
+        <v>0.04650051525449849</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.023723</v>
+        <v>0.21801</v>
       </c>
       <c r="N13">
-        <v>0.07116900000000001</v>
+        <v>0.65403</v>
       </c>
       <c r="O13">
-        <v>0.2732875607676889</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P13">
-        <v>0.2732875607676888</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q13">
-        <v>0.04800477154200001</v>
+        <v>1.72507497825</v>
       </c>
       <c r="R13">
-        <v>0.432042943878</v>
+        <v>10.3504498695</v>
       </c>
       <c r="S13">
-        <v>0.004917087703116648</v>
+        <v>0.01168867159334252</v>
       </c>
       <c r="T13">
-        <v>0.005012483832828719</v>
+        <v>0.008062296520030435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5045936666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.513781</v>
+      </c>
+      <c r="I14">
+        <v>0.004299068740387607</v>
+      </c>
+      <c r="J14">
+        <v>0.004447943464089625</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.487846</v>
+      </c>
+      <c r="O14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q14">
+        <v>0.08205466730288888</v>
+      </c>
+      <c r="R14">
+        <v>0.7384920057259999</v>
+      </c>
+      <c r="S14">
+        <v>0.0005559816650853153</v>
+      </c>
+      <c r="T14">
+        <v>0.0005752350480320371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5045936666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.513781</v>
+      </c>
+      <c r="I15">
+        <v>0.004299068740387607</v>
+      </c>
+      <c r="J15">
+        <v>0.004447943464089625</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.630341</v>
+      </c>
+      <c r="O15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q15">
+        <v>0.4424178032578889</v>
+      </c>
+      <c r="R15">
+        <v>3.981760229320999</v>
+      </c>
+      <c r="S15">
+        <v>0.002997711099244789</v>
+      </c>
+      <c r="T15">
+        <v>0.003101520421353535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5045936666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.513781</v>
+      </c>
+      <c r="I16">
+        <v>0.004299068740387607</v>
+      </c>
+      <c r="J16">
+        <v>0.004447943464089625</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.21801</v>
+      </c>
+      <c r="N16">
+        <v>0.65403</v>
+      </c>
+      <c r="O16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q16">
+        <v>0.11000646527</v>
+      </c>
+      <c r="R16">
+        <v>0.9900581874299998</v>
+      </c>
+      <c r="S16">
+        <v>0.0007453759760575032</v>
+      </c>
+      <c r="T16">
+        <v>0.0007711879947040526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.968758</v>
+      </c>
+      <c r="I17">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J17">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.487846</v>
+      </c>
+      <c r="O17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P17">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q17">
+        <v>0.2151269683631111</v>
+      </c>
+      <c r="R17">
+        <v>1.936142715268</v>
+      </c>
+      <c r="S17">
+        <v>0.001457645908596201</v>
+      </c>
+      <c r="T17">
+        <v>0.001508123499209947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.968758</v>
+      </c>
+      <c r="I18">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J18">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.630341</v>
+      </c>
+      <c r="O18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P18">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q18">
+        <v>1.159909654053111</v>
+      </c>
+      <c r="R18">
+        <v>10.439186886478</v>
+      </c>
+      <c r="S18">
+        <v>0.00785925434842725</v>
+      </c>
+      <c r="T18">
+        <v>0.008131416621301374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.322919333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.968758</v>
+      </c>
+      <c r="I19">
+        <v>0.01127109103361929</v>
+      </c>
+      <c r="J19">
+        <v>0.01166140360240577</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.21801</v>
+      </c>
+      <c r="N19">
+        <v>0.65403</v>
+      </c>
+      <c r="O19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P19">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q19">
+        <v>0.28840964386</v>
+      </c>
+      <c r="R19">
+        <v>2.59568679474</v>
+      </c>
+      <c r="S19">
+        <v>0.001954190776595838</v>
+      </c>
+      <c r="T19">
+        <v>0.002021863481894453</v>
       </c>
     </row>
   </sheetData>
